--- a/notas/powercurvasquad.xlsx
+++ b/notas/powercurvasquad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matro\Documents\AIUC\Scripts\RFLabTests\notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2288CF-407A-4D1B-A85B-024E1D549B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A104DFCA-E429-4E70-8911-BE8BFE086E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{1B3B1B6B-8F0B-4D4E-8B6F-5AE4CB87CC58}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{1B3B1B6B-8F0B-4D4E-8B6F-5AE4CB87CC58}"/>
   </bookViews>
   <sheets>
     <sheet name="ValonPWR 6 (good)" sheetId="6" r:id="rId1"/>
@@ -18,157 +18,188 @@
     <sheet name="ValonPWR 6 (corto volt good)" sheetId="10" r:id="rId3"/>
     <sheet name="ValonPWR 6 (corto new att 30)" sheetId="11" r:id="rId4"/>
     <sheet name="ValonPWR 6 (new gain) " sheetId="13" r:id="rId5"/>
+    <sheet name="ValonPWR 6 (new new gain)" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'ValonPWR 6 (corto new att 30)'!$Y$6:$Y$7</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'ValonPWR 6 (corto volt good)'!$Y$6:$Y$7</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'ValonPWR 6 (good)'!$AB$6:$AB$8</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">'ValonPWR 6 (new gain) '!$AB$6:$AB$8</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'ValonPWR 6 (new new gain)'!$Y$6:$Y$8</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'ValonPWR 6 (rango corto)'!$AB$6:$AB$8</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'ValonPWR 6 (corto new att 30)'!$Y$6</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'ValonPWR 6 (corto volt good)'!$Y$6</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'ValonPWR 6 (good)'!$Y$6</definedName>
     <definedName name="solver_lhs1" localSheetId="4" hidden="1">'ValonPWR 6 (new gain) '!$Y$6</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'ValonPWR 6 (new new gain)'!$Y$6</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'ValonPWR 6 (rango corto)'!$Y$6</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'ValonPWR 6 (corto new att 30)'!$O$9</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'ValonPWR 6 (corto volt good)'!$O$8</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'ValonPWR 6 (good)'!$R$15</definedName>
     <definedName name="solver_opt" localSheetId="4" hidden="1">'ValonPWR 6 (new gain) '!$R$12</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'ValonPWR 6 (new new gain)'!$O$12</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'ValonPWR 6 (rango corto)'!$R$8</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -190,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="64">
   <si>
     <t>V pot. (V)</t>
   </si>
@@ -373,6 +404,15 @@
   </si>
   <si>
     <t>Voltaje Diodo (V)</t>
+  </si>
+  <si>
+    <t>Con Atenuación máxima (V Set = 0), igualmente existe un choppeo, llevando esa señal a negativo si se considera el máximo de 0V en 0V del amplificador, por lo que se agrega un offset para lograr que toda señal choppeada se mueva entre 0 y 3.3 para el Arduino.</t>
+  </si>
+  <si>
+    <t>AD620 Gain</t>
+  </si>
+  <si>
+    <t>AD620 Offset</t>
   </si>
 </sst>
 </file>
@@ -7126,6 +7166,2645 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Potencia</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (dBm) vs Voltaje de atenuación (V)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Diode</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ValonPWR 6 (new new gain)'!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ValonPWR 6 (new new gain)'!$I$3:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-4.3572856956143742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5435766232259267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2221929473391917</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0212352368971818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4890186318085741</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6508877754440174</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5933847912886705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5047303583935605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.207294848587441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E13D-4BA2-9647-FFF360A021E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Spectrum Analyzer</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ValonPWR 6 (new new gain)'!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ValonPWR 6 (new new gain)'!$L$3:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.387110471753644</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.387110471753644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.387110471753644</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1871104717536411</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4871104717536383</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.78711047175365</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.987110471753645</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.187110471753641</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.087110471753647</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E13D-4BA2-9647-FFF360A021E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1014888752"/>
+        <c:axId val="1014885424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1014888752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1014885424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1014885424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1014888752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Potencia (mW) vs Voltaje de atenuación (V)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Diode</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ValonPWR 6 (new new gain)'!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ValonPWR 6 (new new gain)'!$F$3:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.36666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.177777777777778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4555555555555557</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.822222222222222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9222222222222225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.488888888888889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0CB3-47EB-9D01-CD205A7564F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Spectrum Analyzer</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ValonPWR 6 (new new gain)'!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ValonPWR 6 (new new gain)'!$M$3:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.1812781406836419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4570928760337392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3522220725714575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5873546736328725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8860969491973947</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.987014955578248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.801963240367439</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.83104452403499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.627783541322565</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0CB3-47EB-9D01-CD205A7564F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1471285999"/>
+        <c:axId val="1471295151"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1471285999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1471295151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1471295151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1471285999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Potencia (mW) vs Voltaje de atenuación (V) fit Pearson</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ValonPWR 6 (new new gain)'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pot. Multiplier (mW)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ValonPWR 6 (new new gain)'!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ValonPWR 6 (new new gain)'!$M$3:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.1812781406836419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4570928760337392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3522220725714575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5873546736328725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8860969491973947</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.987014955578248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.801963240367439</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.83104452403499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.627783541322565</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5946-4F31-A327-746B891F9583}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ValonPWR 6 (new new gain)'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pot. Diode (fit)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ValonPWR 6 (new new gain)'!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ValonPWR 6 (new new gain)'!$N$3:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.1123222493044227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3215959871224028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8463324391537679</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5463259546370161</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5617821843336497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.717444064791788</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.94320877063068</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.607116135099274</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.078240729770798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5946-4F31-A327-746B891F9583}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="571611984"/>
+        <c:axId val="571624880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="571611984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571624880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="571624880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571611984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Potencia (mW) vs Voltaje de atenuación (V) fit Pearson cuadrático</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ValonPWR 6 (new new gain)'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pot. Multiplier (mW)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ValonPWR 6 (new new gain)'!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ValonPWR 6 (new new gain)'!$M$3:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.1812781406836419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4570928760337392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3522220725714575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5873546736328725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8860969491973947</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.987014955578248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.801963240367439</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.83104452403499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.627783541322565</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-453F-4B2E-A07B-3300D6FEDF48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ValonPWR 6 (new new gain)'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pot. Diode (fit 2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ValonPWR 6 (new new gain)'!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ValonPWR 6 (new new gain)'!$P$3:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.2401708382875034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2172031015002087</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6281558424103464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4367387589943199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9025571674309614</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.926094826940108</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.466806486436969</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.263957065831981</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.258948573773008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-453F-4B2E-A07B-3300D6FEDF48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="571611984"/>
+        <c:axId val="571624880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="571611984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571624880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="571624880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571611984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Relación</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Voltaje de salida vs Voltaje de entrada del amplificador</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ValonPWR 6 (new new gain)'!$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Voltaje A0 (V)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.49689150716466052"/>
+                  <c:y val="-7.0164040029559629E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ValonPWR 6 (new new gain)'!$F$15:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.89E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.86E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.0100000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.2399999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.5099999999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.0299999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.4400000000000012E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ValonPWR 6 (new new gain)'!$G$15:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E33A-48B9-A01C-CB724C5BFE75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1831941184"/>
+        <c:axId val="1831930784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1831941184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1831930784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1831930784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1831941184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11353,6 +14032,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -17826,6 +20705,2586 @@
 </file>
 
 <file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22738,6 +28197,199 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>693420</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C0DE8EC-E593-4CE5-AA0D-A3E03FD502A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6AE4967-2B27-465F-8C29-6D9BCDA637F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>791306</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>693419</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ED35060-153B-40AD-A3FC-5030EC93309A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>293</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>427013</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>180535</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC106186-13FA-46FB-ADE5-43DD7E82C1EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>783102</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>337038</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>153865</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C94C1E9-E5C1-4C21-A7AD-B3ED57690758}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -23038,7 +28690,7 @@
   <dimension ref="B2:AB22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25686,54 +31338,54 @@
         <v>-4.8</v>
       </c>
       <c r="E3" s="2">
-        <f>D3/$U$2</f>
+        <f t="shared" ref="E3:E8" si="1">D3/$U$2</f>
         <v>5.3333333333333332E-3</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F7" si="1">100*E3</f>
+        <f t="shared" ref="F3:F7" si="2">100*E3</f>
         <v>0.53333333333333333</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G7" si="2">10*LOG10(F3)</f>
+        <f t="shared" ref="G3:G7" si="3">10*LOG10(F3)</f>
         <v>-2.7300127206373763</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I7" si="3">G3+H3</f>
+        <f t="shared" ref="I3:I7" si="4">G3+H3</f>
         <v>-2.7300127206373763</v>
       </c>
       <c r="J3">
         <v>-72</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K7" si="4">J3+$U$11</f>
+        <f t="shared" ref="K3:K7" si="5">J3+$U$11</f>
         <v>-23.612889528246356</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L7" si="5">K3-$U$9+$U$13+$U$14</f>
+        <f t="shared" ref="L3:L7" si="6">K3-$U$9+$U$13+$U$14</f>
         <v>3.387110471753644</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M7" si="6">(10^(L3/10))</f>
+        <f t="shared" ref="M3:M7" si="7">(10^(L3/10))</f>
         <v>2.1812781406836419</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N7" si="7">$Y$6*F3+$Y$7</f>
+        <f t="shared" ref="N3:N7" si="8">$Y$6*F3+$Y$7</f>
         <v>3.7579981023071092</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O7" si="8">(M3-($Y$6*F3+$Y$7))^2/M3</f>
+        <f t="shared" ref="O3:O7" si="9">(M3-($Y$6*F3+$Y$7))^2/M3</f>
         <v>1.1397197775991776</v>
       </c>
       <c r="P3">
-        <f>$AB$6*F3^2+$AB$7*F3+$AB$9</f>
+        <f t="shared" ref="P3:P8" si="10">$AB$6*F3^2+$AB$7*F3+$AB$9</f>
         <v>4.0481942143994241</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q7" si="9">L3-$U$15-$U$14+$U$9</f>
+        <f t="shared" ref="Q3:Q7" si="11">L3-$U$15-$U$14+$U$9</f>
         <v>9.387110471753644</v>
       </c>
       <c r="R3">
-        <f>(M3-($AB$6*F3^2+$AB$7*F3+$AB$9))^2/M3</f>
+        <f t="shared" ref="R3:R8" si="12">(M3-($AB$6*F3^2+$AB$7*F3+$AB$9))^2/M3</f>
         <v>1.5978593290289831</v>
       </c>
       <c r="T3" t="s">
@@ -25764,54 +31416,54 @@
         <v>-13.5</v>
       </c>
       <c r="E4" s="2">
-        <f>D4/$U$2</f>
+        <f t="shared" si="1"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="2"/>
-        <v>1.7609125905568124</v>
-      </c>
-      <c r="I4" s="2">
         <f t="shared" si="3"/>
         <v>1.7609125905568124</v>
       </c>
+      <c r="I4" s="2">
+        <f t="shared" si="4"/>
+        <v>1.7609125905568124</v>
+      </c>
       <c r="J4">
         <v>-70</v>
       </c>
       <c r="K4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-21.612889528246356</v>
       </c>
       <c r="L4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.387110471753644</v>
       </c>
       <c r="M4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.4570928760337392</v>
       </c>
       <c r="N4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.8081455920085947</v>
       </c>
       <c r="O4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.2482651487587231</v>
       </c>
       <c r="P4">
-        <f>$AB$6*F4^2+$AB$7*F4+$AB$9</f>
+        <f t="shared" si="10"/>
         <v>6.5592915050286145</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11.387110471753644</v>
       </c>
       <c r="R4">
-        <f>(M4-($AB$6*F4^2+$AB$7*F4+$AB$9))^2/M4</f>
+        <f t="shared" si="12"/>
         <v>2.7837367056157052</v>
       </c>
       <c r="T4" t="s">
@@ -25845,54 +31497,54 @@
         <v>-24.5</v>
       </c>
       <c r="E5" s="2">
-        <f>D5/$U$2</f>
+        <f t="shared" si="1"/>
         <v>2.7222222222222221E-2</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7222222222222219</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="2"/>
-        <v>4.3492357492520757</v>
-      </c>
-      <c r="I5" s="2">
         <f t="shared" si="3"/>
         <v>4.3492357492520757</v>
       </c>
+      <c r="I5" s="2">
+        <f t="shared" si="4"/>
+        <v>4.3492357492520757</v>
+      </c>
       <c r="J5">
         <v>-68</v>
       </c>
       <c r="K5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-19.612889528246356</v>
       </c>
       <c r="L5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.387110471753644</v>
       </c>
       <c r="M5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.4791229649316859</v>
       </c>
       <c r="N5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.664653912320816</v>
       </c>
       <c r="O5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.9076706944586101</v>
       </c>
       <c r="P5">
-        <f>$AB$6*F5^2+$AB$7*F5+$AB$9</f>
+        <f t="shared" si="10"/>
         <v>10.168185015798962</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13.387110471753644</v>
       </c>
       <c r="R5">
-        <f>(M5-($AB$6*F5^2+$AB$7*F5+$AB$9))^2/M5</f>
+        <f t="shared" si="12"/>
         <v>4.0129237941199882</v>
       </c>
       <c r="T5" t="s">
@@ -25917,54 +31569,54 @@
         <v>-36.700000000000003</v>
       </c>
       <c r="E6" s="2">
-        <f>D6/$U$2</f>
+        <f t="shared" si="1"/>
         <v>4.0777777777777781E-2</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0777777777777784</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="2"/>
-        <v>6.1042355481276456</v>
-      </c>
-      <c r="I6" s="2">
         <f t="shared" si="3"/>
         <v>6.1042355481276456</v>
       </c>
+      <c r="I6" s="2">
+        <f t="shared" si="4"/>
+        <v>6.1042355481276456</v>
+      </c>
       <c r="J6">
         <v>-66</v>
       </c>
       <c r="K6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-17.612889528246356</v>
       </c>
       <c r="L6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.387110471753644</v>
       </c>
       <c r="M6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.683824687777582</v>
       </c>
       <c r="N6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14.94187223121256</v>
       </c>
       <c r="O6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.5098974776649294</v>
       </c>
       <c r="P6">
-        <f>$AB$6*F6^2+$AB$7*F6+$AB$9</f>
+        <f t="shared" si="10"/>
         <v>14.737565120062083</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>15.387110471753644</v>
       </c>
       <c r="R6">
-        <f>(M6-($AB$6*F6^2+$AB$7*F6+$AB$9))^2/M6</f>
+        <f t="shared" si="12"/>
         <v>4.2202341179293503</v>
       </c>
       <c r="X6" t="s">
@@ -25992,54 +31644,54 @@
         <v>-50.2</v>
       </c>
       <c r="E7" s="2">
-        <f>D7/$U$2</f>
+        <f t="shared" si="1"/>
         <v>5.577777777777778E-2</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5777777777777784</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="2"/>
-        <v>7.4646120770569446</v>
-      </c>
-      <c r="I7" s="2">
         <f t="shared" si="3"/>
         <v>7.4646120770569446</v>
       </c>
+      <c r="I7" s="2">
+        <f t="shared" si="4"/>
+        <v>7.4646120770569446</v>
+      </c>
       <c r="J7">
         <v>-64.900000000000006</v>
       </c>
       <c r="K7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.512889528246362</v>
       </c>
       <c r="L7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.487110471753638</v>
       </c>
       <c r="M7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.186933261011221</v>
       </c>
       <c r="N7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19.674859715232106</v>
       </c>
       <c r="O7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.4400934385971622</v>
       </c>
       <c r="P7">
-        <f>$AB$6*F7^2+$AB$7*F7+$AB$9</f>
+        <f t="shared" si="10"/>
         <v>20.488615620687966</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16.487110471753638</v>
       </c>
       <c r="R7">
-        <f>(M7-($AB$6*F7^2+$AB$7*F7+$AB$9))^2/M7</f>
+        <f t="shared" si="12"/>
         <v>7.7341388119178438</v>
       </c>
       <c r="T7" t="s">
@@ -26072,58 +31724,58 @@
         <v>-5.9499999999999997E-2</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8" si="10">C8*1000</f>
+        <f t="shared" ref="D8" si="13">C8*1000</f>
         <v>-59.5</v>
       </c>
       <c r="E8" s="2">
-        <f>D8/$U$2</f>
+        <f t="shared" si="1"/>
         <v>6.6111111111111107E-2</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" ref="F8" si="11">100*E8</f>
+        <f t="shared" ref="F8" si="14">100*E8</f>
         <v>6.6111111111111107</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" ref="G8" si="12">10*LOG10(F8)</f>
+        <f t="shared" ref="G8" si="15">10*LOG10(F8)</f>
         <v>8.2027445628922475</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" ref="I8" si="13">G8+H8</f>
+        <f t="shared" ref="I8" si="16">G8+H8</f>
         <v>8.2027445628922475</v>
       </c>
       <c r="J8">
         <v>-64</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8" si="14">J8+$U$11</f>
+        <f t="shared" ref="K8" si="17">J8+$U$11</f>
         <v>-15.612889528246356</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8" si="15">K8-$U$9+$U$13+$U$14</f>
+        <f t="shared" ref="L8" si="18">K8-$U$9+$U$13+$U$14</f>
         <v>11.387110471753644</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8" si="16">(10^(L8/10))</f>
+        <f t="shared" ref="M8" si="19">(10^(L8/10))</f>
         <v>13.762934632184441</v>
       </c>
       <c r="N8">
-        <f t="shared" ref="N8" si="17">$Y$6*F8+$Y$7</f>
+        <f t="shared" ref="N8" si="20">$Y$6*F8+$Y$7</f>
         <v>22.935362204223345</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8" si="18">(M8-($Y$6*F8+$Y$7))^2/M8</f>
+        <f t="shared" ref="O8" si="21">(M8-($Y$6*F8+$Y$7))^2/M8</f>
         <v>6.1130441880872262</v>
       </c>
       <c r="P8">
-        <f>$AB$6*F8^2+$AB$7*F8+$AB$9</f>
+        <f t="shared" si="10"/>
         <v>24.875061648412412</v>
       </c>
       <c r="Q8">
-        <f t="shared" ref="Q8" si="19">L8-$U$15-$U$14+$U$9</f>
+        <f t="shared" ref="Q8" si="22">L8-$U$15-$U$14+$U$9</f>
         <v>17.387110471753644</v>
       </c>
       <c r="R8">
-        <f>(M8-($AB$6*F8^2+$AB$7*F8+$AB$9))^2/M8</f>
+        <f t="shared" si="12"/>
         <v>8.9718777371817691</v>
       </c>
     </row>
@@ -26211,7 +31863,7 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="G12">
-        <f>-F12/E12</f>
+        <f t="shared" ref="G12:G17" si="23">-F12/E12</f>
         <v>183.95833333333334</v>
       </c>
       <c r="H12">
@@ -26243,7 +31895,7 @@
         <v>1.3</v>
       </c>
       <c r="G13">
-        <f>-F13/E13</f>
+        <f t="shared" si="23"/>
         <v>96.296296296296305</v>
       </c>
       <c r="H13">
@@ -26274,7 +31926,7 @@
         <v>1.83</v>
       </c>
       <c r="G14">
-        <f>-F14/E14</f>
+        <f t="shared" si="23"/>
         <v>74.693877551020407</v>
       </c>
       <c r="H14">
@@ -26313,7 +31965,7 @@
         <v>2.44</v>
       </c>
       <c r="G15">
-        <f>-F15/E15</f>
+        <f t="shared" si="23"/>
         <v>66.48501362397819</v>
       </c>
       <c r="H15">
@@ -26343,7 +31995,7 @@
         <v>3.1</v>
       </c>
       <c r="G16">
-        <f>-F16/E16</f>
+        <f t="shared" si="23"/>
         <v>61.752988047808763</v>
       </c>
       <c r="H16">
@@ -26373,7 +32025,7 @@
         <v>3.37</v>
       </c>
       <c r="G17">
-        <f>-F17/E17</f>
+        <f t="shared" si="23"/>
         <v>56.638655462184879</v>
       </c>
       <c r="H17">
@@ -26408,7 +32060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BCD2CE-9556-4EFF-A8E2-8C95580E13BA}">
   <dimension ref="B2:AB24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -27501,4 +33153,1078 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0AC145-901E-41FF-BD54-679511BE3629}">
+  <dimension ref="B2:AB25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="104" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" customWidth="1"/>
+    <col min="5" max="6" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="17.88671875" customWidth="1"/>
+    <col min="17" max="17" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <v>-900</v>
+      </c>
+      <c r="V2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-3.3E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D11" si="0">C3*1000</f>
+        <v>-3.3</v>
+      </c>
+      <c r="E3" s="2">
+        <f>D3/$U$2</f>
+        <v>3.6666666666666666E-3</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F11" si="1">100*E3</f>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G11" si="2">10*LOG10(F3)</f>
+        <v>-4.3572856956143742</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I11" si="3">G3+H3</f>
+        <v>-4.3572856956143742</v>
+      </c>
+      <c r="J3">
+        <v>-72</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K11" si="4">J3+$U$10</f>
+        <v>-23.612889528246356</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="5">K3-$U$8+$U$12+$U$13</f>
+        <v>3.387110471753644</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M11" si="6">(10^(L3/10))</f>
+        <v>2.1812781406836419</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N11" si="7">$Y$6*F3+$Y$7</f>
+        <v>2.1123222493044227</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O11" si="8">(M3-($Y$6*F3+$Y$7))^2/M3</f>
+        <v>2.1798755817597948E-3</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P11" si="9">$AB$6*F3^2+$AB$7*F3+$AB$8</f>
+        <v>2.2401708382875034</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q11" si="10">L3-$U$14-$U$13+$U$8</f>
+        <v>9.387110471753644</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R11" si="11">(M3-($AB$6*F3^2+$AB$7*F3+$AB$8))^2/M3</f>
+        <v>1.5900539075557084E-3</v>
+      </c>
+      <c r="T3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3">
+        <v>0.76</v>
+      </c>
+      <c r="V3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-1.0199999999999999E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="E4" s="2">
+        <f>D4/$U$2</f>
+        <v>1.1333333333333332E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5435766232259267</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5435766232259267</v>
+      </c>
+      <c r="J4">
+        <v>-70</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>-21.612889528246356</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="5"/>
+        <v>5.387110471753644</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="6"/>
+        <v>3.4570928760337392</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="7"/>
+        <v>3.3215959871224028</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="8"/>
+        <v>5.3106490230353451E-3</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="9"/>
+        <v>3.2172031015002087</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="10"/>
+        <v>11.387110471753644</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="11"/>
+        <v>1.6646097165827618E-2</v>
+      </c>
+      <c r="T4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="3">
+        <v>150000000000</v>
+      </c>
+      <c r="V4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-1.89E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <f>D5/$U$2</f>
+        <v>2.0999999999999998E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2221929473391917</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="3"/>
+        <v>3.2221929473391917</v>
+      </c>
+      <c r="J5">
+        <v>-69</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>-20.612889528246356</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="5"/>
+        <v>6.387110471753644</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="6"/>
+        <v>4.3522220725714575</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="7"/>
+        <v>4.8463324391537679</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="8"/>
+        <v>5.6096644494028534E-2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="9"/>
+        <v>4.6281558424103464</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="10"/>
+        <v>12.387110471753644</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="11"/>
+        <v>1.7494384263465404E-2</v>
+      </c>
+      <c r="T5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="3">
+        <v>299750000</v>
+      </c>
+      <c r="V5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-2.86E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>-28.6</v>
+      </c>
+      <c r="E6" s="2">
+        <f>D6/$U$2</f>
+        <v>3.177777777777778E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>3.177777777777778</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>5.0212352368971818</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>5.0212352368971818</v>
+      </c>
+      <c r="J6">
+        <v>-67.2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>-18.812889528246359</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>8.1871104717536411</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="6"/>
+        <v>6.5873546736328725</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="7"/>
+        <v>6.5463259546370161</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="8"/>
+        <v>2.5554351721471778E-4</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="9"/>
+        <v>6.4367387589943199</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="10"/>
+        <v>14.187110471753641</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="11"/>
+        <v>3.4437425744220772E-3</v>
+      </c>
+      <c r="X6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6">
+        <v>1.5773135710669306</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB6">
+        <v>0.1068556010549036</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-4.0100000000000004E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>-40.1</v>
+      </c>
+      <c r="E7" s="2">
+        <f>D7/$U$2</f>
+        <v>4.4555555555555557E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>4.4555555555555557</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
+        <v>6.4890186318085741</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>6.4890186318085741</v>
+      </c>
+      <c r="J7">
+        <v>-65.900000000000006</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>-17.512889528246362</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>9.4871104717536383</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="6"/>
+        <v>8.8860969491973947</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="7"/>
+        <v>8.5617821843336497</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="8"/>
+        <v>1.1836475261293004E-2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="9"/>
+        <v>8.9025571674309614</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="10"/>
+        <v>15.487110471753638</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="11"/>
+        <v>3.049018999518264E-5</v>
+      </c>
+      <c r="T7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7">
+        <v>25.2</v>
+      </c>
+      <c r="V7" t="s">
+        <v>15</v>
+      </c>
+      <c r="X7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y7">
+        <v>1.5339739399132148</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB7">
+        <v>1.1141065069559555</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-5.2399999999999995E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>-52.4</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ref="E8:E10" si="12">D8/$U$2</f>
+        <v>5.8222222222222224E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>5.822222222222222</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>7.6508877754440174</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>7.6508877754440174</v>
+      </c>
+      <c r="J8">
+        <v>-64.599999999999994</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>-16.21288952824635</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>10.78711047175365</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>11.987014955578248</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="7"/>
+        <v>10.717444064791788</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="8"/>
+        <v>0.1344630212530315</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="9"/>
+        <v>11.926094826940108</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="10"/>
+        <v>16.78711047175365</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="11"/>
+        <v>3.0960686101091478E-4</v>
+      </c>
+      <c r="T8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8">
+        <v>6.5</v>
+      </c>
+      <c r="V8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB8">
+        <v>1.8172989771507162</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-6.5099999999999991E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>-65.099999999999994</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="12"/>
+        <v>7.2333333333333333E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>7.2333333333333334</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>8.5933847912886705</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="3"/>
+        <v>8.5933847912886705</v>
+      </c>
+      <c r="J9">
+        <v>-63.4</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>-15.012889528246355</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>11.987110471753645</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="6"/>
+        <v>15.801963240367439</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
+        <v>12.94320877063068</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="8"/>
+        <v>0.51718112451765619</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="9"/>
+        <v>15.466806486436969</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="10"/>
+        <v>17.987110471753645</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="11"/>
+        <v>7.1086135308967716E-3</v>
+      </c>
+      <c r="T9" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="4">
+        <f>20*LOG10($U$3*$U$4*4*PI()/$U$5)</f>
+        <v>73.587110471753647</v>
+      </c>
+      <c r="V9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-8.0299999999999996E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>-80.3</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="12"/>
+        <v>8.9222222222222217E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>8.9222222222222225</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>9.5047303583935605</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>9.5047303583935605</v>
+      </c>
+      <c r="J10">
+        <v>-62.2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>-13.812889528246359</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>13.187110471753641</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="6"/>
+        <v>20.83104452403499</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="7"/>
+        <v>15.607116135099274</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="8"/>
+        <v>1.3100364593451757</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="9"/>
+        <v>20.263957065831981</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="10"/>
+        <v>19.187110471753641</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="11"/>
+        <v>1.5437928946870559E-2</v>
+      </c>
+      <c r="T10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U10" s="4">
+        <f>$U$9-$U$7</f>
+        <v>48.387110471753644</v>
+      </c>
+      <c r="V10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-9.4400000000000012E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>-94.4</v>
+      </c>
+      <c r="E11" s="2">
+        <f>D11/$U$2</f>
+        <v>0.10488888888888889</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>10.488888888888889</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>10.207294848587441</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>10.207294848587441</v>
+      </c>
+      <c r="J11" s="2">
+        <v>-61.3</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>-12.912889528246353</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>14.087110471753647</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="6"/>
+        <v>25.627783541322565</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="7"/>
+        <v>18.078240729770798</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="8"/>
+        <v>2.2239768246657978</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="9"/>
+        <v>25.258948573773008</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="10"/>
+        <v>20.087110471753647</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="11"/>
+        <v>5.3082715119679028E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="O12">
+        <f>SUM(O3:O7)</f>
+        <v>7.5679187877331383E-2</v>
+      </c>
+      <c r="R12">
+        <f>SUM(R3:R7)</f>
+        <v>3.920476810126599E-2</v>
+      </c>
+      <c r="T12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U12">
+        <v>33</v>
+      </c>
+      <c r="V12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="T13" t="s">
+        <v>11</v>
+      </c>
+      <c r="U13">
+        <v>0.5</v>
+      </c>
+      <c r="V13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+      <c r="D15">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="E15">
+        <v>-3.3</v>
+      </c>
+      <c r="F15" s="2">
+        <f>E15/1000</f>
+        <v>-3.3E-3</v>
+      </c>
+      <c r="G15">
+        <v>0.39</v>
+      </c>
+      <c r="H15">
+        <v>-72</v>
+      </c>
+      <c r="J15" s="2">
+        <v>-63.4</v>
+      </c>
+      <c r="K15">
+        <f>J15+$U$10</f>
+        <v>-15.012889528246355</v>
+      </c>
+      <c r="L15">
+        <f>K15-$U$8+$U$12+$U$13</f>
+        <v>11.987110471753645</v>
+      </c>
+      <c r="T15" t="s">
+        <v>22</v>
+      </c>
+      <c r="U15">
+        <v>6</v>
+      </c>
+      <c r="V15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>0.75</v>
+      </c>
+      <c r="D16">
+        <v>0.752</v>
+      </c>
+      <c r="E16">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" ref="F16:F23" si="13">E16/1000</f>
+        <v>-1.0199999999999999E-2</v>
+      </c>
+      <c r="G16">
+        <v>0.61</v>
+      </c>
+      <c r="H16">
+        <v>-70</v>
+      </c>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.99</v>
+      </c>
+      <c r="E17">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="13"/>
+        <v>-1.89E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="H17">
+        <v>-69</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>1.25</v>
+      </c>
+      <c r="D18">
+        <v>1.24</v>
+      </c>
+      <c r="E18">
+        <v>-28.6</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="13"/>
+        <v>-2.86E-2</v>
+      </c>
+      <c r="G18">
+        <v>1.2</v>
+      </c>
+      <c r="H18">
+        <v>-67.2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="K18">
+        <v>1.73</v>
+      </c>
+      <c r="L18">
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>1.5</v>
+      </c>
+      <c r="D19">
+        <v>1.48</v>
+      </c>
+      <c r="E19">
+        <v>-40.1</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="13"/>
+        <v>-4.0100000000000004E-2</v>
+      </c>
+      <c r="G19">
+        <v>1.57</v>
+      </c>
+      <c r="H19">
+        <v>-65.900000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1.75</v>
+      </c>
+      <c r="D20">
+        <v>1.73</v>
+      </c>
+      <c r="E20">
+        <v>-52.4</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="13"/>
+        <v>-5.2399999999999995E-2</v>
+      </c>
+      <c r="G20">
+        <v>1.97</v>
+      </c>
+      <c r="H20">
+        <v>-64.599999999999994</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1.99</v>
+      </c>
+      <c r="E21">
+        <v>-65.099999999999994</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="13"/>
+        <v>-6.5099999999999991E-2</v>
+      </c>
+      <c r="G21">
+        <v>2.39</v>
+      </c>
+      <c r="H21">
+        <v>-63.4</v>
+      </c>
+      <c r="J21" s="2">
+        <v>-31.99</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.2858</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>2.25</v>
+      </c>
+      <c r="D22">
+        <v>2.25</v>
+      </c>
+      <c r="E22">
+        <v>-80.3</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="13"/>
+        <v>-8.0299999999999996E-2</v>
+      </c>
+      <c r="G22">
+        <v>2.84</v>
+      </c>
+      <c r="H22">
+        <v>-62.2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C23" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>-94.4</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="13"/>
+        <v>-9.4400000000000012E-2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="H23" s="2">
+        <v>-61.3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C25" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/notas/powercurvasquad.xlsx
+++ b/notas/powercurvasquad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matro\Documents\AIUC\Scripts\RFLabTests\notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A104DFCA-E429-4E70-8911-BE8BFE086E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190C959E-C6D5-4F10-AD9D-611BC8DC9FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{1B3B1B6B-8F0B-4D4E-8B6F-5AE4CB87CC58}"/>
   </bookViews>
@@ -33159,7 +33159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0AC145-901E-41FF-BD54-679511BE3629}">
   <dimension ref="B2:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="104" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="104" zoomScaleNormal="265" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
